--- a/Jogos_do_Dia/2023-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>1.85</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="X4" t="n">
         <v>1.11</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="X5" t="n">
         <v>1.29</v>
@@ -1120,10 +1120,10 @@
         <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="W6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>1.87</v>
@@ -1230,10 +1230,10 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="X7" t="n">
         <v>1.36</v>
@@ -1340,10 +1340,10 @@
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>1.28</v>
@@ -1450,10 +1450,10 @@
         <v>1.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>1.24</v>
@@ -1560,7 +1560,7 @@
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="X11" t="n">
         <v>2.04</v>
@@ -1780,10 +1780,10 @@
         <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>1.86</v>
@@ -1890,10 +1890,10 @@
         <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W14" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="X14" t="n">
         <v>1.52</v>
@@ -2110,10 +2110,10 @@
         <v>1.5</v>
       </c>
       <c r="V15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W15" t="n">
         <v>1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.5</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="X16" t="n">
         <v>1.83</v>
@@ -2330,10 +2330,10 @@
         <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X17" t="n">
         <v>2.05</v>
@@ -2440,10 +2440,10 @@
         <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
         <v>2.02</v>
@@ -2550,10 +2550,10 @@
         <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
         <v>1.15</v>
@@ -2660,10 +2660,10 @@
         <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
         <v>1.47</v>
@@ -2770,10 +2770,10 @@
         <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
         <v>1.05</v>
@@ -2880,10 +2880,10 @@
         <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X22" t="n">
         <v>1.26</v>
@@ -2990,10 +2990,10 @@
         <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X23" t="n">
         <v>2.14</v>
@@ -3100,10 +3100,10 @@
         <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
         <v>0.82</v>
@@ -3210,10 +3210,10 @@
         <v>1.82</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X25" t="n">
         <v>1.53</v>
@@ -3320,10 +3320,10 @@
         <v>1.69</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
         <v>1.47</v>
@@ -3430,10 +3430,10 @@
         <v>1.47</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
         <v>1.47</v>
@@ -3540,10 +3540,10 @@
         <v>1.23</v>
       </c>
       <c r="V28" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
         <v>1.7</v>
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
         <v>1.41</v>
@@ -3760,7 +3760,7 @@
         <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>1.06</v>
@@ -3956,7 +3956,7 @@
         <v>1.9</v>
       </c>
       <c r="N32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
@@ -4063,10 +4063,10 @@
         <v>4.95</v>
       </c>
       <c r="M33" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="N33" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G34" t="n">
         <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>5.35</v>
+        <v>5.75</v>
       </c>
       <c r="I34" t="n">
         <v>1.02</v>
@@ -4173,10 +4173,10 @@
         <v>4.22</v>
       </c>
       <c r="M34" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>3.23</v>
       </c>
       <c r="M35" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O35" t="n">
         <v>1.42</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>4.49</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="I36" t="n">
         <v>1.07</v>
@@ -4393,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O36" t="n">
         <v>1.49</v>
@@ -4420,10 +4420,10 @@
         <v>1.5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X36" t="n">
         <v>1.39</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.72</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>5.32</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8</v>
+        <v>3.78</v>
       </c>
       <c r="I37" t="n">
         <v>1.1</v>
@@ -4497,16 +4497,16 @@
         <v>5.75</v>
       </c>
       <c r="K37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="L37" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="M37" t="n">
         <v>2.59</v>
       </c>
       <c r="N37" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="O37" t="n">
         <v>1.58</v>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="H38" t="n">
         <v>4.33</v>
@@ -4613,10 +4613,10 @@
         <v>3.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -4640,10 +4640,10 @@
         <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X38" t="n">
         <v>1.77</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.22</v>
+        <v>1.98</v>
       </c>
       <c r="G39" t="n">
-        <v>3.38</v>
+        <v>5.23</v>
       </c>
       <c r="H39" t="n">
-        <v>2.23</v>
+        <v>2.42</v>
       </c>
       <c r="I39" t="n">
         <v>1.03</v>
@@ -4723,10 +4723,10 @@
         <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O39" t="n">
         <v>1.47</v>
@@ -4750,10 +4750,10 @@
         <v>1.32</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
         <v>1.3</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.47</v>
+        <v>1.67</v>
       </c>
       <c r="G40" t="n">
-        <v>2.94</v>
+        <v>5.41</v>
       </c>
       <c r="H40" t="n">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>2.9</v>
       </c>
       <c r="M40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -4860,10 +4860,10 @@
         <v>1.33</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="W40" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
         <v>1.09</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="G41" t="n">
-        <v>5.75</v>
+        <v>4.04</v>
       </c>
       <c r="H41" t="n">
-        <v>10.5</v>
+        <v>8.84</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4943,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="N41" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.32</v>
@@ -4970,10 +4970,10 @@
         <v>3.75</v>
       </c>
       <c r="V41" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="W41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X41" t="n">
         <v>1.82</v>
@@ -4985,28 +4985,28 @@
         <v>2.59</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="42">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="G42" t="n">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
-        <v>4.64</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
         <v>1.06</v>
@@ -5053,10 +5053,10 @@
         <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O42" t="n">
         <v>1.37</v>
@@ -5080,10 +5080,10 @@
         <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
         <v>1.46</v>
@@ -5095,28 +5095,28 @@
         <v>2.61</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF42" t="n">
         <v>1.93</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="43">
@@ -5142,14 +5142,14 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.1</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.78</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
@@ -5157,16 +5157,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="M43" t="n">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="N43" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="W43" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X43" t="n">
         <v>1.18</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="L44" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M44" t="n">
         <v>2.4</v>
@@ -5300,10 +5300,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="W44" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>1.3</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="G45" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M45" t="n">
         <v>2.73</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="G46" t="n">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W46" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="X46" t="n">
         <v>1.21</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="G47" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5630,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="X47" t="n">
         <v>1.07</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5707,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="L48" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="M48" t="n">
         <v>2.45</v>
@@ -5740,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W48" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="X48" t="n">
         <v>1.27</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="G49" t="n">
-        <v>3.88</v>
+        <v>3.75</v>
       </c>
       <c r="H49" t="n">
-        <v>6.85</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5850,10 +5850,10 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="W49" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="X49" t="n">
         <v>1.47</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N50" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5960,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="W50" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="X50" t="n">
         <v>1.45</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="G53" t="n">
-        <v>3.58</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="I53" t="n">
         <v>1.04</v>
@@ -6263,10 +6263,10 @@
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N53" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O53" t="n">
         <v>1.3</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="G54" t="n">
-        <v>2.92</v>
+        <v>3.68</v>
       </c>
       <c r="H54" t="n">
-        <v>4.12</v>
+        <v>4.49</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.49</v>
+        <v>6.01</v>
       </c>
       <c r="G55" t="n">
-        <v>3.34</v>
+        <v>4.71</v>
       </c>
       <c r="H55" t="n">
-        <v>2.68</v>
+        <v>1.37</v>
       </c>
       <c r="I55" t="n">
         <v>1.05</v>
@@ -6483,7 +6483,7 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N55" t="n">
         <v>2</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="G56" t="n">
-        <v>3.94</v>
+        <v>5.6</v>
       </c>
       <c r="H56" t="n">
-        <v>4.18</v>
+        <v>6.06</v>
       </c>
       <c r="I56" t="n">
         <v>1.04</v>
@@ -6593,10 +6593,10 @@
         <v>3.8</v>
       </c>
       <c r="M56" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>
@@ -6635,13 +6635,13 @@
         <v>3.56</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AD56" t="n">
         <v>1.17</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.36</v>
+        <v>4.27</v>
       </c>
       <c r="G57" t="n">
-        <v>3.72</v>
+        <v>5.43</v>
       </c>
       <c r="H57" t="n">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="I57" t="n">
         <v>1.03</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="G58" t="n">
-        <v>3.68</v>
+        <v>5.16</v>
       </c>
       <c r="H58" t="n">
-        <v>4.76</v>
+        <v>6.38</v>
       </c>
       <c r="I58" t="n">
         <v>1.06</v>
@@ -6813,10 +6813,10 @@
         <v>3.25</v>
       </c>
       <c r="M58" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.19</v>
+        <v>1.48</v>
       </c>
       <c r="G59" t="n">
-        <v>3.52</v>
+        <v>4.74</v>
       </c>
       <c r="H59" t="n">
-        <v>3.19</v>
+        <v>4.49</v>
       </c>
       <c r="I59" t="n">
         <v>1.01</v>
@@ -6923,10 +6923,10 @@
         <v>3.64</v>
       </c>
       <c r="M59" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N59" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="G60" t="n">
-        <v>3.56</v>
+        <v>4.38</v>
       </c>
       <c r="H60" t="n">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="I60" t="n">
         <v>1.02</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.56</v>
+        <v>3.73</v>
       </c>
       <c r="G61" t="n">
-        <v>3.58</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="I61" t="n">
         <v>1.03</v>
@@ -7143,10 +7143,10 @@
         <v>3.08</v>
       </c>
       <c r="M61" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N61" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5.35</v>
+        <v>10.24</v>
       </c>
       <c r="G62" t="n">
-        <v>3.98</v>
+        <v>7.47</v>
       </c>
       <c r="H62" t="n">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7256,7 +7256,7 @@
         <v>1.87</v>
       </c>
       <c r="N62" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O62" t="n">
         <v>1.38</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="G63" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="I63" t="n">
         <v>1.01</v>
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="N63" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O63" t="n">
         <v>1.37</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.97</v>
+        <v>4.25</v>
       </c>
       <c r="G64" t="n">
-        <v>3.54</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -7473,10 +7473,10 @@
         <v>3.6</v>
       </c>
       <c r="M64" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N64" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -7562,10 +7562,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.09</v>
+        <v>2.88</v>
       </c>
       <c r="G65" t="n">
-        <v>3.62</v>
+        <v>2.17</v>
       </c>
       <c r="H65" t="n">
         <v>3.34</v>
@@ -7583,10 +7583,10 @@
         <v>4.08</v>
       </c>
       <c r="M65" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N65" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="O65" t="n">
         <v>1.32</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.7</v>
+        <v>3.84</v>
       </c>
       <c r="G66" t="n">
-        <v>3.48</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="I66" t="n">
         <v>1.01</v>
@@ -7693,10 +7693,10 @@
         <v>3.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="N66" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="O66" t="n">
         <v>1.36</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.52</v>
+        <v>5.28</v>
       </c>
       <c r="G67" t="n">
-        <v>3.58</v>
+        <v>2.27</v>
       </c>
       <c r="H67" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="I67" t="n">
         <v>1.04</v>
@@ -7806,7 +7806,7 @@
         <v>1.87</v>
       </c>
       <c r="N67" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O67" t="n">
         <v>1.38</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.32</v>
+        <v>3.54</v>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="H68" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I68" t="n">
         <v>1.04</v>
@@ -7913,10 +7913,10 @@
         <v>3.72</v>
       </c>
       <c r="M68" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N68" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.77</v>
+        <v>2.53</v>
       </c>
       <c r="G69" t="n">
-        <v>3.98</v>
+        <v>2.22</v>
       </c>
       <c r="H69" t="n">
-        <v>4.2</v>
+        <v>3.82</v>
       </c>
       <c r="I69" t="n">
         <v>1.02</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.5</v>
+        <v>3.76</v>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>2.5</v>
+        <v>2.91</v>
       </c>
       <c r="I70" t="n">
         <v>1.03</v>
@@ -8133,10 +8133,10 @@
         <v>3.92</v>
       </c>
       <c r="M70" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N70" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="O70" t="n">
         <v>1.35</v>
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="H71" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="G72" t="n">
-        <v>3.61</v>
+        <v>5.34</v>
       </c>
       <c r="H72" t="n">
-        <v>5.76</v>
+        <v>4.28</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="G73" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H73" t="n">
-        <v>4.38</v>
+        <v>4.72</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="G74" t="n">
-        <v>2.84</v>
+        <v>4.01</v>
       </c>
       <c r="H74" t="n">
-        <v>3.52</v>
+        <v>2.37</v>
       </c>
       <c r="I74" t="n">
         <v>1.14</v>
@@ -8573,10 +8573,10 @@
         <v>2.18</v>
       </c>
       <c r="M74" t="n">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="N74" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="O74" t="n">
         <v>1.67</v>
@@ -8662,13 +8662,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="G75" t="n">
-        <v>3.11</v>
+        <v>3.96</v>
       </c>
       <c r="H75" t="n">
-        <v>3.09</v>
+        <v>2.25</v>
       </c>
       <c r="I75" t="n">
         <v>1.13</v>
@@ -8677,13 +8677,13 @@
         <v>5.75</v>
       </c>
       <c r="K75" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="L75" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M75" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="N75" t="n">
         <v>1.37</v>
@@ -8781,13 +8781,13 @@
         <v>4.75</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J76" t="n">
         <v>8.75</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L76" t="n">
         <v>2.76</v>
@@ -8805,10 +8805,10 @@
         <v>2.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="S76" t="n">
         <v>1.2</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.17</v>
+        <v>4.68</v>
       </c>
       <c r="G77" t="n">
-        <v>4.23</v>
+        <v>6.62</v>
       </c>
       <c r="H77" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -8903,10 +8903,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="N77" t="n">
-        <v>3.5</v>
+        <v>3.08</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="G78" t="n">
-        <v>3.28</v>
+        <v>4.46</v>
       </c>
       <c r="H78" t="n">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="I78" t="n">
         <v>1.07</v>
@@ -9055,28 +9055,28 @@
         <v>2.1</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF78" t="n">
         <v>2</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="79">
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G79" t="n">
-        <v>9.1</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>22</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I79" t="n">
         <v>1.02</v>
@@ -9123,10 +9123,10 @@
         <v>6.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N79" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="O79" t="n">
         <v>1.17</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>5.37</v>
       </c>
       <c r="H80" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="I80" t="n">
         <v>1.01</v>
@@ -9233,10 +9233,10 @@
         <v>3.43</v>
       </c>
       <c r="M80" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N80" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O80" t="n">
         <v>1.4</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.8</v>
+        <v>4.83</v>
       </c>
       <c r="G81" t="n">
-        <v>3.74</v>
+        <v>4.69</v>
       </c>
       <c r="H81" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="I81" t="n">
         <v>1.03</v>
@@ -9343,10 +9343,10 @@
         <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="N81" t="n">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="O81" t="n">
         <v>1.32</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4.94</v>
+        <v>10.37</v>
       </c>
       <c r="G82" t="n">
-        <v>3.64</v>
+        <v>8.4</v>
       </c>
       <c r="H82" t="n">
-        <v>1.73</v>
+        <v>1.11</v>
       </c>
       <c r="I82" t="n">
         <v>1.1</v>
@@ -9453,10 +9453,10 @@
         <v>2.62</v>
       </c>
       <c r="M82" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N82" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="O82" t="n">
         <v>1.44</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.57</v>
+        <v>4.6</v>
       </c>
       <c r="G83" t="n">
-        <v>3.38</v>
+        <v>6.59</v>
       </c>
       <c r="H83" t="n">
-        <v>2.68</v>
+        <v>1.35</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -9563,10 +9563,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="G84" t="n">
-        <v>3.94</v>
+        <v>2.09</v>
       </c>
       <c r="H84" t="n">
-        <v>4.86</v>
+        <v>6.64</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -9673,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -9700,10 +9700,10 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="W84" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="X84" t="n">
         <v>1.63</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>2.37</v>
       </c>
       <c r="H85" t="n">
-        <v>7.7</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="W85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X85" t="n">
         <v>1.85</v>
@@ -9872,13 +9872,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.03</v>
+        <v>2.54</v>
       </c>
       <c r="G86" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="H86" t="n">
-        <v>3.9</v>
+        <v>6.17</v>
       </c>
       <c r="I86" t="n">
         <v>1.05</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.86</v>
+        <v>3.77</v>
       </c>
       <c r="G87" t="n">
-        <v>3.44</v>
+        <v>1.77</v>
       </c>
       <c r="H87" t="n">
-        <v>2.42</v>
+        <v>3.57</v>
       </c>
       <c r="I87" t="n">
         <v>1.02</v>
@@ -10003,10 +10003,10 @@
         <v>3.14</v>
       </c>
       <c r="M87" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="N87" t="n">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="O87" t="n">
         <v>1.4</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G88" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I88" t="n">
         <v>1.09</v>
@@ -10125,10 +10125,10 @@
         <v>2.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S88" t="n">
         <v>1.45</v>
@@ -10202,13 +10202,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.48</v>
+        <v>2.1</v>
       </c>
       <c r="G89" t="n">
-        <v>3.82</v>
+        <v>3.47</v>
       </c>
       <c r="H89" t="n">
-        <v>1.98</v>
+        <v>2.91</v>
       </c>
       <c r="I89" t="n">
         <v>1.03</v>
@@ -10235,10 +10235,10 @@
         <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R89" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S89" t="n">
         <v>1.78</v>
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="G91" t="n">
-        <v>4.08</v>
+        <v>3.28</v>
       </c>
       <c r="H91" t="n">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="I91" t="n">
         <v>1.03</v>
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.52</v>
+        <v>5.01</v>
       </c>
       <c r="G92" t="n">
-        <v>3.08</v>
+        <v>1.45</v>
       </c>
       <c r="H92" t="n">
-        <v>2.83</v>
+        <v>4.55</v>
       </c>
       <c r="I92" t="n">
         <v>1.08</v>
@@ -10553,10 +10553,10 @@
         <v>2.75</v>
       </c>
       <c r="M92" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="N92" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O92" t="n">
         <v>1.45</v>
@@ -10642,13 +10642,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.71</v>
+        <v>3.06</v>
       </c>
       <c r="G93" t="n">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
-        <v>4.46</v>
+        <v>2.09</v>
       </c>
       <c r="I93" t="n">
         <v>1.01</v>
@@ -10663,10 +10663,10 @@
         <v>3.9</v>
       </c>
       <c r="M93" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="O93" t="n">
         <v>1.33</v>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5.8</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>3.82</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="I94" t="n">
         <v>1.07</v>
@@ -10773,10 +10773,10 @@
         <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="N94" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="O94" t="n">
         <v>1.4</v>
@@ -10862,13 +10862,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.11</v>
+        <v>2.51</v>
       </c>
       <c r="G95" t="n">
-        <v>3.46</v>
+        <v>3.69</v>
       </c>
       <c r="H95" t="n">
-        <v>3.42</v>
+        <v>2.28</v>
       </c>
       <c r="I95" t="n">
         <v>1.07</v>
@@ -10883,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N95" t="n">
         <v>1.81</v>
@@ -10972,13 +10972,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="G96" t="n">
-        <v>4.04</v>
+        <v>3.48</v>
       </c>
       <c r="H96" t="n">
-        <v>4.4</v>
+        <v>5.45</v>
       </c>
       <c r="I96" t="n">
         <v>1.03</v>
@@ -11082,13 +11082,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="G97" t="n">
-        <v>3.32</v>
+        <v>7.77</v>
       </c>
       <c r="H97" t="n">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
       <c r="I97" t="n">
         <v>1.06</v>
@@ -11103,10 +11103,10 @@
         <v>3.2</v>
       </c>
       <c r="M97" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N97" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O97" t="n">
         <v>1.44</v>
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G98" t="n">
-        <v>3.84</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
-        <v>4.48</v>
+        <v>3.09</v>
       </c>
       <c r="I98" t="n">
         <v>1.03</v>
@@ -11302,13 +11302,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.65</v>
+        <v>1.82</v>
       </c>
       <c r="G99" t="n">
-        <v>3.36</v>
+        <v>2.71</v>
       </c>
       <c r="H99" t="n">
-        <v>2.65</v>
+        <v>5.27</v>
       </c>
       <c r="I99" t="n">
         <v>1.03</v>
@@ -11323,10 +11323,10 @@
         <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N99" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O99" t="n">
         <v>1.36</v>
@@ -11412,13 +11412,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="G100" t="n">
-        <v>3.11</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="I100" t="n">
         <v>1.14</v>
@@ -11430,7 +11430,7 @@
         <v>1.53</v>
       </c>
       <c r="L100" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M100" t="n">
         <v>2.5</v>
@@ -11522,13 +11522,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.89</v>
+        <v>5.47</v>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="I101" t="n">
         <v>1.1</v>
@@ -11543,10 +11543,10 @@
         <v>2.72</v>
       </c>
       <c r="M101" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="N101" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="O101" t="n">
         <v>1.53</v>
@@ -11742,13 +11742,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="G103" t="n">
-        <v>5.45</v>
+        <v>5.2</v>
       </c>
       <c r="H103" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -11852,13 +11852,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="H104" t="n">
-        <v>2.75</v>
+        <v>3.44</v>
       </c>
       <c r="I104" t="n">
         <v>1.03</v>
@@ -11873,10 +11873,10 @@
         <v>4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="N104" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O104" t="n">
         <v>1.33</v>
@@ -12402,13 +12402,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.57</v>
+        <v>3.18</v>
       </c>
       <c r="G109" t="n">
-        <v>3.32</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="I109" t="n">
         <v>1.06</v>
@@ -12423,10 +12423,10 @@
         <v>2.9</v>
       </c>
       <c r="M109" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="N109" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O109" t="n">
         <v>1.46</v>
@@ -12465,25 +12465,25 @@
         <v>2.55</v>
       </c>
       <c r="AA109" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="AB109" t="n">
         <v>7.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AD109" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AE109" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AF109" t="n">
         <v>2</v>
       </c>
       <c r="AG109" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AH109" t="n">
         <v>3.5</v>
@@ -12512,13 +12512,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="G110" t="n">
-        <v>3.36</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
-        <v>3.01</v>
+        <v>3.4</v>
       </c>
       <c r="I110" t="n">
         <v>1.04</v>
@@ -12533,10 +12533,10 @@
         <v>2.79</v>
       </c>
       <c r="M110" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="N110" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O110" t="n">
         <v>1.5</v>
@@ -12622,13 +12622,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="H111" t="n">
-        <v>2.51</v>
+        <v>2.75</v>
       </c>
       <c r="I111" t="n">
         <v>1.06</v>
@@ -12732,10 +12732,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G112" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="H112" t="n">
         <v>2.42</v>
@@ -12842,13 +12842,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3.74</v>
+        <v>2.94</v>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H113" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="G114" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H114" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="I114" t="n">
         <v>1.08</v>
@@ -12973,10 +12973,10 @@
         <v>2.42</v>
       </c>
       <c r="M114" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="N114" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="O114" t="n">
         <v>1.52</v>
@@ -12985,16 +12985,16 @@
         <v>2.35</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R114" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U114" t="n">
         <v>1.52</v>
@@ -13062,13 +13062,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.04</v>
+        <v>2.89</v>
       </c>
       <c r="G115" t="n">
-        <v>3.62</v>
+        <v>2.31</v>
       </c>
       <c r="H115" t="n">
-        <v>3.48</v>
+        <v>3.04</v>
       </c>
       <c r="I115" t="n">
         <v>1.06</v>
@@ -13083,10 +13083,10 @@
         <v>3.4</v>
       </c>
       <c r="M115" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="N115" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="O115" t="n">
         <v>1.38</v>
@@ -13172,13 +13172,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="G116" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="I116" t="n">
         <v>1.04</v>
@@ -13193,10 +13193,10 @@
         <v>4</v>
       </c>
       <c r="M116" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="N116" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="O116" t="n">
         <v>1.33</v>
@@ -13282,13 +13282,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.94</v>
+        <v>2.54</v>
       </c>
       <c r="G117" t="n">
-        <v>3.64</v>
+        <v>2.36</v>
       </c>
       <c r="H117" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="I117" t="n">
         <v>1.03</v>
@@ -13303,10 +13303,10 @@
         <v>4</v>
       </c>
       <c r="M117" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O117" t="n">
         <v>1.33</v>
@@ -13392,13 +13392,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G118" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="I118" t="n">
         <v>1.03</v>
@@ -13413,10 +13413,10 @@
         <v>3.75</v>
       </c>
       <c r="M118" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="N118" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="O118" t="n">
         <v>1.34</v>
@@ -13502,13 +13502,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="G119" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="H119" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="I119" t="n">
         <v>1.11</v>
@@ -13517,10 +13517,10 @@
         <v>6</v>
       </c>
       <c r="K119" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="L119" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="M119" t="n">
         <v>2.4</v>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="G120" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
-        <v>6.35</v>
+        <v>5</v>
       </c>
       <c r="I120" t="n">
         <v>1.07</v>
@@ -13633,7 +13633,7 @@
         <v>3.18</v>
       </c>
       <c r="M120" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="N120" t="n">
         <v>1.7</v>
@@ -13835,22 +13835,22 @@
         <v>1.1</v>
       </c>
       <c r="G122" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="H122" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="M122" t="n">
         <v>1.45</v>
@@ -13859,16 +13859,16 @@
         <v>2.24</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R122" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S122" t="n">
         <v>1.01</v>
@@ -13942,13 +13942,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="G123" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -13963,10 +13963,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N123" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -14162,13 +14162,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="G125" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="H125" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="I125" t="n">
         <v>1.01</v>
@@ -14183,10 +14183,10 @@
         <v>6.7</v>
       </c>
       <c r="M125" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="N125" t="n">
-        <v>2.83</v>
+        <v>3.47</v>
       </c>
       <c r="O125" t="n">
         <v>1.18</v>
@@ -14272,13 +14272,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>5.49</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
       <c r="H126" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="I126" t="n">
         <v>1.04</v>
@@ -14293,10 +14293,10 @@
         <v>3.53</v>
       </c>
       <c r="M126" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N126" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O126" t="n">
         <v>1.36</v>
@@ -14388,7 +14388,7 @@
         <v>3.32</v>
       </c>
       <c r="H127" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -14403,10 +14403,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="N127" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -14602,13 +14602,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G129" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I129" t="n">
         <v>1.04</v>
@@ -14623,10 +14623,10 @@
         <v>3.75</v>
       </c>
       <c r="M129" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N129" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O129" t="n">
         <v>1.34</v>
@@ -14822,13 +14822,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="G131" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -14843,10 +14843,10 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N131" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -14932,13 +14932,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="G132" t="n">
         <v>3.7</v>
       </c>
       <c r="H132" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I132" t="n">
         <v>1.04</v>
@@ -14953,10 +14953,10 @@
         <v>3.75</v>
       </c>
       <c r="M132" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N132" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
@@ -15042,13 +15042,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -15063,10 +15063,10 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -15391,10 +15391,10 @@
         <v>3.8</v>
       </c>
       <c r="M136" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N136" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O136" t="n">
         <v>1.36</v>
@@ -15480,13 +15480,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G137" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I137" t="n">
         <v>1.04</v>
@@ -15501,7 +15501,7 @@
         <v>3.8</v>
       </c>
       <c r="M137" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N137" t="n">
         <v>1.95</v>
@@ -15590,13 +15590,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="G138" t="n">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="H138" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="I138" t="n">
         <v>1.03</v>
@@ -15700,13 +15700,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="G139" t="n">
         <v>3.5</v>
       </c>
       <c r="H139" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="I139" t="n">
         <v>1.05</v>
@@ -15721,10 +15721,10 @@
         <v>3.75</v>
       </c>
       <c r="M139" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N139" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O139" t="n">
         <v>1.4</v>
@@ -15825,16 +15825,16 @@
         <v>6</v>
       </c>
       <c r="K140" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L140" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M140" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N140" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="O140" t="n">
         <v>1.56</v>
@@ -15920,13 +15920,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G141" t="n">
-        <v>4.1</v>
+        <v>3.69</v>
       </c>
       <c r="H141" t="n">
-        <v>5.2</v>
+        <v>4.26</v>
       </c>
       <c r="I141" t="n">
         <v>1.03</v>
@@ -15941,10 +15941,10 @@
         <v>2.97</v>
       </c>
       <c r="M141" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="N141" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="O141" t="n">
         <v>1.5</v>
@@ -16470,13 +16470,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="G146" t="n">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="H146" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -16491,10 +16491,10 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="N146" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -16580,13 +16580,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="G147" t="n">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="H147" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -16601,10 +16601,10 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="N147" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O147" t="n">
         <v>0</v>
@@ -16690,13 +16690,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="G148" t="n">
         <v>3.05</v>
       </c>
       <c r="H148" t="n">
-        <v>3.22</v>
+        <v>2.83</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -16705,16 +16705,16 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M148" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N148" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O148" t="n">
         <v>0</v>
@@ -16800,13 +16800,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>6.05</v>
+        <v>5.45</v>
       </c>
       <c r="H149" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I149" t="n">
         <v>1.01</v>
@@ -16821,10 +16821,10 @@
         <v>4.92</v>
       </c>
       <c r="M149" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="N149" t="n">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="O149" t="n">
         <v>1.25</v>
@@ -16910,13 +16910,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="H150" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="I150" t="n">
         <v>1.09</v>
@@ -17020,13 +17020,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="I151" t="n">
         <v>1.07</v>
@@ -17041,10 +17041,10 @@
         <v>2.9</v>
       </c>
       <c r="M151" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="N151" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="O151" t="n">
         <v>1.48</v>
@@ -17130,13 +17130,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="G152" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="H152" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="I152" t="n">
         <v>1.06</v>
@@ -17151,10 +17151,10 @@
         <v>3.1</v>
       </c>
       <c r="M152" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N152" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O152" t="n">
         <v>1.44</v>
@@ -17240,13 +17240,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G153" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="H153" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="I153" t="n">
         <v>1.13</v>
@@ -17255,16 +17255,16 @@
         <v>6.1</v>
       </c>
       <c r="K153" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L153" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="M153" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="N153" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="O153" t="n">
         <v>1.62</v>
@@ -17350,13 +17350,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="G154" t="n">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I154" t="n">
         <v>1.03</v>
@@ -17460,13 +17460,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="G155" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="n">
-        <v>3.98</v>
+        <v>4.2</v>
       </c>
       <c r="I155" t="n">
         <v>1.07</v>
@@ -17570,13 +17570,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3.54</v>
+        <v>4.7</v>
       </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -17591,10 +17591,10 @@
         <v>3.82</v>
       </c>
       <c r="M156" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="N156" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="O156" t="n">
         <v>1.33</v>
@@ -17680,13 +17680,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G157" t="n">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="H157" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I157" t="n">
         <v>1.02</v>
@@ -17790,13 +17790,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="G158" t="n">
-        <v>4.58</v>
+        <v>4</v>
       </c>
       <c r="H158" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="I158" t="n">
         <v>1.05</v>
@@ -17811,10 +17811,10 @@
         <v>3.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N158" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -17900,13 +17900,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="G159" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="H159" t="n">
-        <v>3.52</v>
+        <v>2.89</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -18230,13 +18230,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="G162" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="H162" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I162" t="n">
         <v>1.03</v>
@@ -18251,10 +18251,10 @@
         <v>3.6</v>
       </c>
       <c r="M162" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="N162" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="O162" t="n">
         <v>1.35</v>
@@ -18361,10 +18361,10 @@
         <v>4.3</v>
       </c>
       <c r="M163" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="N163" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="O163" t="n">
         <v>1.32</v>
@@ -18450,13 +18450,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>3.38</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
-        <v>3.12</v>
+        <v>3.5</v>
       </c>
       <c r="I164" t="n">
         <v>1.03</v>
@@ -18471,10 +18471,10 @@
         <v>3.04</v>
       </c>
       <c r="M164" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N164" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O164" t="n">
         <v>1.4</v>
@@ -18581,7 +18581,7 @@
         <v>2.9</v>
       </c>
       <c r="M165" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="N165" t="n">
         <v>1.65</v>
@@ -18670,13 +18670,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H166" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I166" t="n">
         <v>1.05</v>
@@ -18691,10 +18691,10 @@
         <v>3.2</v>
       </c>
       <c r="M166" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N166" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="O166" t="n">
         <v>1.42</v>
@@ -18801,10 +18801,10 @@
         <v>4.1</v>
       </c>
       <c r="M167" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="N167" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O167" t="n">
         <v>1.3</v>
@@ -18890,13 +18890,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="G168" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="I168" t="n">
         <v>1.04</v>
@@ -18911,10 +18911,10 @@
         <v>4.05</v>
       </c>
       <c r="M168" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="N168" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="O168" t="n">
         <v>1.33</v>
@@ -19000,13 +19000,13 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G169" t="n">
-        <v>4.52</v>
+        <v>4.75</v>
       </c>
       <c r="H169" t="n">
-        <v>6.2</v>
+        <v>5.55</v>
       </c>
       <c r="I169" t="n">
         <v>1.03</v>
@@ -19110,13 +19110,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G170" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H170" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -19131,10 +19131,10 @@
         <v>6.99</v>
       </c>
       <c r="M170" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N170" t="n">
-        <v>2.83</v>
+        <v>3.15</v>
       </c>
       <c r="O170" t="n">
         <v>1.2</v>
@@ -19440,13 +19440,13 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G173" t="n">
-        <v>3.2</v>
+        <v>3.46</v>
       </c>
       <c r="H173" t="n">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
       <c r="I173" t="n">
         <v>1.06</v>
@@ -19461,10 +19461,10 @@
         <v>3.24</v>
       </c>
       <c r="M173" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N173" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="O173" t="n">
         <v>1.45</v>
@@ -19565,16 +19565,16 @@
         <v>6.75</v>
       </c>
       <c r="K174" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L174" t="n">
         <v>2.55</v>
       </c>
       <c r="M174" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="N174" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O174" t="n">
         <v>1.53</v>
@@ -19660,13 +19660,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G175" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H175" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="I175" t="n">
         <v>1.07</v>
@@ -19770,13 +19770,13 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>3.51</v>
       </c>
       <c r="H176" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="I176" t="n">
         <v>1.07</v>
@@ -19791,10 +19791,10 @@
         <v>2.84</v>
       </c>
       <c r="M176" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="N176" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O176" t="n">
         <v>1.48</v>
@@ -19880,13 +19880,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4.44</v>
+        <v>4.45</v>
       </c>
       <c r="G177" t="n">
-        <v>3.82</v>
+        <v>3.95</v>
       </c>
       <c r="H177" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I177" t="n">
         <v>1.01</v>
@@ -19904,7 +19904,7 @@
         <v>1.83</v>
       </c>
       <c r="N177" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O177" t="n">
         <v>1.33</v>
@@ -19990,31 +19990,31 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="G178" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="H178" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J178" t="n">
         <v>9</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="M178" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="N178" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O178" t="n">
         <v>1.43</v>
@@ -20032,7 +20032,7 @@
         <v>1.9</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U178" t="n">
         <v>1.2</v>
@@ -20100,13 +20100,13 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H179" t="n">
-        <v>7.5</v>
+        <v>8.15</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -20121,31 +20121,31 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N179" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q179" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R179" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U179" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="V179" t="n">
         <v>1.86</v>
@@ -20175,13 +20175,13 @@
         <v>0</v>
       </c>
       <c r="AE179" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF179" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG179" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH179" t="n">
         <v>0</v>
@@ -20210,13 +20210,13 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="G180" t="n">
-        <v>5.15</v>
+        <v>5.55</v>
       </c>
       <c r="H180" t="n">
-        <v>9.9</v>
+        <v>11.75</v>
       </c>
       <c r="I180" t="n">
         <v>1.03</v>
@@ -20231,10 +20231,10 @@
         <v>3.72</v>
       </c>
       <c r="M180" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="N180" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O180" t="n">
         <v>1.33</v>
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="AH180" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="181">
@@ -20320,43 +20320,43 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G181" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="H181" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J181" t="n">
         <v>8.35</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L181" t="n">
         <v>2.96</v>
       </c>
       <c r="M181" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="N181" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O181" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P181" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R181" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S181" t="n">
         <v>1.27</v>
@@ -20430,13 +20430,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G182" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="H182" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I182" t="n">
         <v>1.06</v>
@@ -20451,10 +20451,10 @@
         <v>2.93</v>
       </c>
       <c r="M182" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N182" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O182" t="n">
         <v>1.45</v>
@@ -20540,13 +20540,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="H183" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I183" t="n">
         <v>1.04</v>
@@ -20561,7 +20561,7 @@
         <v>2.83</v>
       </c>
       <c r="M183" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N183" t="n">
         <v>1.7</v>
@@ -20650,13 +20650,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="H184" t="n">
-        <v>8</v>
+        <v>17.03</v>
       </c>
       <c r="I184" t="n">
         <v>1.06</v>
@@ -20671,10 +20671,10 @@
         <v>4.5</v>
       </c>
       <c r="M184" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="N184" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="O184" t="n">
         <v>1.3</v>
@@ -20980,13 +20980,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4.08</v>
+        <v>4</v>
       </c>
       <c r="G187" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="I187" t="n">
         <v>1.08</v>
@@ -21090,13 +21090,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="G188" t="n">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="H188" t="n">
-        <v>4.78</v>
+        <v>5</v>
       </c>
       <c r="I188" t="n">
         <v>1.11</v>
@@ -21105,16 +21105,16 @@
         <v>6.5</v>
       </c>
       <c r="K188" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="L188" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="M188" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="N188" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="O188" t="n">
         <v>1.62</v>
@@ -21200,13 +21200,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="G189" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H189" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="I189" t="n">
         <v>1.03</v>
@@ -21224,7 +21224,7 @@
         <v>1.6</v>
       </c>
       <c r="N189" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O189" t="n">
         <v>1.25</v>
@@ -21272,10 +21272,10 @@
         <v>0</v>
       </c>
       <c r="AD189" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE189" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AF189" t="n">
         <v>0</v>
@@ -21435,16 +21435,16 @@
         <v>6</v>
       </c>
       <c r="K191" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="L191" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M191" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N191" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O191" t="n">
         <v>1.62</v>
@@ -21530,13 +21530,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="H192" t="n">
-        <v>4.44</v>
+        <v>4.27</v>
       </c>
       <c r="I192" t="n">
         <v>1.1</v>
@@ -21551,7 +21551,7 @@
         <v>2.47</v>
       </c>
       <c r="M192" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N192" t="n">
         <v>1.5</v>
@@ -21593,28 +21593,28 @@
         <v>2.7</v>
       </c>
       <c r="AA192" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB192" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC192" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AD192" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE192" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF192" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AG192" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH192" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="193">
@@ -21640,13 +21640,13 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="G193" t="n">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="H193" t="n">
-        <v>4.02</v>
+        <v>3.93</v>
       </c>
       <c r="I193" t="n">
         <v>1.09</v>
@@ -21661,10 +21661,10 @@
         <v>2.6</v>
       </c>
       <c r="M193" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="N193" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="O193" t="n">
         <v>1.51</v>
@@ -21750,13 +21750,13 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G194" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="H194" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I194" t="n">
         <v>1.07</v>
@@ -21771,10 +21771,10 @@
         <v>2.5</v>
       </c>
       <c r="M194" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="N194" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O194" t="n">
         <v>1.58</v>
@@ -21813,28 +21813,28 @@
         <v>2.18</v>
       </c>
       <c r="AA194" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AB194" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC194" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AD194" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE194" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF194" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG194" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH194" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="195">
@@ -21860,13 +21860,13 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G195" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H195" t="n">
-        <v>4.52</v>
+        <v>4.83</v>
       </c>
       <c r="I195" t="n">
         <v>1.04</v>
@@ -21881,7 +21881,7 @@
         <v>3.24</v>
       </c>
       <c r="M195" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="N195" t="n">
         <v>1.8</v>
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="AG195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH195" t="n">
         <v>0</v>
@@ -21970,13 +21970,13 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -21991,10 +21991,10 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O196" t="n">
         <v>0</v>
@@ -22003,19 +22003,19 @@
         <v>0</v>
       </c>
       <c r="Q196" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R196" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S196" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T196" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U196" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V196" t="n">
         <v>0.5</v>
@@ -22300,13 +22300,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H199" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="I199" t="n">
         <v>1.01</v>
@@ -22321,10 +22321,10 @@
         <v>3.6</v>
       </c>
       <c r="M199" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="N199" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="O199" t="n">
         <v>1.36</v>
@@ -22363,13 +22363,13 @@
         <v>2.99</v>
       </c>
       <c r="AA199" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AB199" t="n">
         <v>0</v>
       </c>
       <c r="AC199" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AD199" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G204" t="n">
-        <v>4.5</v>
+        <v>4.73</v>
       </c>
       <c r="H204" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="I204" t="n">
         <v>1.03</v>
@@ -22879,10 +22879,10 @@
         <v>3.04</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="R204" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S204" t="n">
         <v>1.04</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="AH204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -23066,13 +23066,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>5</v>
+        <v>4.27</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>3.56</v>
       </c>
       <c r="H206" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="I206" t="n">
         <v>1.03</v>
@@ -23087,10 +23087,10 @@
         <v>4.32</v>
       </c>
       <c r="M206" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="N206" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="O206" t="n">
         <v>1.3</v>
@@ -23129,25 +23129,25 @@
         <v>3.14</v>
       </c>
       <c r="AA206" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AB206" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC206" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD206" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE206" t="n">
         <v>1.67</v>
       </c>
       <c r="AF206" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG206" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH206" t="n">
         <v>0</v>
@@ -23392,13 +23392,13 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="G209" t="n">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="H209" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I209" t="n">
         <v>1.04</v>
@@ -23413,10 +23413,10 @@
         <v>3.48</v>
       </c>
       <c r="M209" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="N209" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="O209" t="n">
         <v>1.36</v>
@@ -23425,10 +23425,10 @@
         <v>2.9</v>
       </c>
       <c r="Q209" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R209" t="n">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="S209" t="n">
         <v>1.45</v>
@@ -23455,7 +23455,7 @@
         <v>3.5</v>
       </c>
       <c r="AA209" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB209" t="n">
         <v>0</v>
@@ -23502,13 +23502,13 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="H210" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="I210" t="n">
         <v>1.07</v>
@@ -23523,10 +23523,10 @@
         <v>3.1</v>
       </c>
       <c r="M210" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N210" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O210" t="n">
         <v>1.4</v>
@@ -23633,10 +23633,10 @@
         <v>2.48</v>
       </c>
       <c r="M211" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="N211" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O211" t="n">
         <v>1.5</v>
@@ -23722,13 +23722,13 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G212" t="n">
-        <v>4.32</v>
+        <v>4.03</v>
       </c>
       <c r="H212" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N212" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O212" t="n">
         <v>0</v>
@@ -23832,13 +23832,13 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H213" t="n">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="I213" t="n">
         <v>1.11</v>
@@ -23847,16 +23847,16 @@
         <v>6.5</v>
       </c>
       <c r="K213" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L213" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="M213" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N213" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O213" t="n">
         <v>1.57</v>
@@ -23895,25 +23895,25 @@
         <v>2.86</v>
       </c>
       <c r="AA213" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB213" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC213" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD213" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE213" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF213" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG213" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH213" t="n">
         <v>0</v>
@@ -23942,13 +23942,13 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="G214" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="H214" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I214" t="n">
         <v>1.08</v>
@@ -23963,10 +23963,10 @@
         <v>2.84</v>
       </c>
       <c r="M214" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="N214" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="O214" t="n">
         <v>1.46</v>
@@ -24052,13 +24052,13 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="G215" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H215" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="I215" t="n">
         <v>1.06</v>
@@ -24067,16 +24067,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="L215" t="n">
-        <v>3.03</v>
+        <v>2.15</v>
       </c>
       <c r="M215" t="n">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="N215" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O215" t="n">
         <v>1.45</v>
@@ -24162,13 +24162,13 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G216" t="n">
-        <v>3.78</v>
+        <v>3.67</v>
       </c>
       <c r="H216" t="n">
-        <v>4.14</v>
+        <v>4.02</v>
       </c>
       <c r="I216" t="n">
         <v>1.04</v>
@@ -24183,10 +24183,10 @@
         <v>3.92</v>
       </c>
       <c r="M216" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="N216" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="O216" t="n">
         <v>1.3</v>
@@ -24240,13 +24240,13 @@
         <v>0</v>
       </c>
       <c r="AF216" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG216" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH216" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="217">
@@ -24272,13 +24272,13 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H217" t="n">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="I217" t="n">
         <v>1.05</v>
@@ -24293,10 +24293,10 @@
         <v>3.74</v>
       </c>
       <c r="M217" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N217" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O217" t="n">
         <v>1.36</v>
@@ -24492,13 +24492,13 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="G219" t="n">
         <v>4.2</v>
       </c>
       <c r="H219" t="n">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="I219" t="n">
         <v>1.04</v>
@@ -24513,10 +24513,10 @@
         <v>3.52</v>
       </c>
       <c r="M219" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N219" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O219" t="n">
         <v>1.35</v>
@@ -24602,13 +24602,13 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G220" t="n">
-        <v>3.13</v>
+        <v>2.88</v>
       </c>
       <c r="H220" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I220" t="n">
         <v>1.11</v>
@@ -24623,10 +24623,10 @@
         <v>2.38</v>
       </c>
       <c r="M220" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N220" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="O220" t="n">
         <v>1.57</v>
@@ -24712,13 +24712,13 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>3.78</v>
       </c>
       <c r="H221" t="n">
-        <v>3.4</v>
+        <v>4.51</v>
       </c>
       <c r="I221" t="n">
         <v>1.06</v>
@@ -24733,7 +24733,7 @@
         <v>3.2</v>
       </c>
       <c r="M221" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N221" t="n">
         <v>1.85</v>
@@ -24775,13 +24775,13 @@
         <v>2.58</v>
       </c>
       <c r="AA221" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB221" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC221" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD221" t="n">
         <v>1.27</v>
@@ -24822,13 +24822,13 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="G222" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="H222" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="I222" t="n">
         <v>1.07</v>
@@ -24843,10 +24843,10 @@
         <v>3.3</v>
       </c>
       <c r="M222" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="N222" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O222" t="n">
         <v>1.41</v>
@@ -24932,13 +24932,13 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -24953,10 +24953,10 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="N223" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -25042,13 +25042,13 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G224" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H224" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -25063,10 +25063,10 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N224" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G225" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="H225" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="I225" t="n">
         <v>1.02</v>
@@ -25173,10 +25173,10 @@
         <v>4.74</v>
       </c>
       <c r="M225" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="N225" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O225" t="n">
         <v>1.29</v>
@@ -25262,13 +25262,13 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="G226" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="H226" t="n">
-        <v>4.45</v>
+        <v>5.53</v>
       </c>
       <c r="I226" t="n">
         <v>1.07</v>
@@ -25283,10 +25283,10 @@
         <v>2.78</v>
       </c>
       <c r="M226" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="N226" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O226" t="n">
         <v>1.48</v>
